--- a/Output/roaming_impact_reports_per_acct/MarksSpencer_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/MarksSpencer_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,10 +437,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="39" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
@@ -519,33 +519,12 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>No good drivers found.</t>
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
